--- a/municipal/ბიზნეს სექტორი/ინვესტიციები/იმერეთი/ზესტაფონი.xlsx
+++ b/municipal/ბიზნეს სექტორი/ინვესტიციები/იმერეთი/ზესტაფონი.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3879E8-89F4-40D7-AC9B-106F13D61273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ზესტაფონი" sheetId="1" r:id="rId1"/>
@@ -28,11 +29,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +66,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -80,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,6 +102,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -123,15 +140,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,9 +205,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,18 +450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="10" width="8.7109375" style="1" customWidth="1"/>
+    <col min="11" max="256" width="9.140625" style="1"/>
     <col min="257" max="257" width="27.5703125" style="1" customWidth="1"/>
     <col min="258" max="265" width="13" style="1" customWidth="1"/>
     <col min="266" max="512" width="9.140625" style="1"/>
@@ -638,25 +651,25 @@
     <col min="16138" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4">
         <v>2014</v>
@@ -682,40 +695,43 @@
       <c r="I3" s="5">
         <v>2021</v>
       </c>
+      <c r="J3" s="5">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>33.493562515204999</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>32.277474162716999</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>53.758569102389998</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>34.700000000000003</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <v>23.809802243252001</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>23.426706101918995</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="9">
         <v>38</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="9">
         <v>11.637043999999999</v>
+      </c>
+      <c r="J4" s="9">
+        <v>42.3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/municipal/ბიზნეს სექტორი/ინვესტიციები/იმერეთი/ზესტაფონი.xlsx
+++ b/municipal/ბიზნეს სექტორი/ინვესტიციები/იმერეთი/ზესტაფონი.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3879E8-89F4-40D7-AC9B-106F13D61273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C3F49E-419B-40E5-B9FC-2B72EB037EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ზესტაფონი" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,9 +167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,9 +207,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +242,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +294,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +687,7 @@
     <col min="16138" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -664,12 +700,12 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4">
         <v>2014</v>
@@ -698,8 +734,11 @@
       <c r="J3" s="5">
         <v>2022</v>
       </c>
+      <c r="K3" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -729,6 +768,9 @@
       </c>
       <c r="J4" s="9">
         <v>42.3</v>
+      </c>
+      <c r="K4" s="9">
+        <v>47.7</v>
       </c>
     </row>
   </sheetData>
